--- a/uploads/processed_Test.xlsx
+++ b/uploads/processed_Test.xlsx
@@ -810,7 +810,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>OS - Upgrade</t>
+          <t>App - Adobe Acrobat</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
